--- a/data/TEXT/ColliInfo/3DBox.xlsx
+++ b/data/TEXT/ColliInfo/3DBox.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>END_SCRIPT</t>
   </si>
@@ -55,7 +55,33 @@
   </si>
   <si>
     <t>ストーン</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植木鉢</t>
+  </si>
+  <si>
+    <t>噴水</t>
+  </si>
+  <si>
+    <t>屋根</t>
+  </si>
+  <si>
+    <t>解散</t>
+  </si>
+  <si>
+    <t>木の箱</t>
+  </si>
+  <si>
+    <t>緩い階段</t>
+  </si>
+  <si>
+    <t>噴水の下</t>
+  </si>
+  <si>
+    <t>噴水の上の部分</t>
+  </si>
+  <si>
+    <t>噴水の水がある上の部分</t>
   </si>
 </sst>
 </file>
@@ -386,7 +412,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -410,7 +436,8 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <f>COUNTA(A5:A15)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -453,19 +480,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -485,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -506,20 +533,299 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>

--- a/data/TEXT/ColliInfo/3DBox.xlsx
+++ b/data/TEXT/ColliInfo/3DBox.xlsx
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">

--- a/data/TEXT/ColliInfo/3DBox.xlsx
+++ b/data/TEXT/ColliInfo/3DBox.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>END_SCRIPT</t>
   </si>
@@ -60,15 +60,9 @@
     <t>植木鉢</t>
   </si>
   <si>
-    <t>噴水</t>
-  </si>
-  <si>
     <t>屋根</t>
   </si>
   <si>
-    <t>解散</t>
-  </si>
-  <si>
     <t>木の箱</t>
   </si>
   <si>
@@ -78,10 +72,13 @@
     <t>噴水の下</t>
   </si>
   <si>
-    <t>噴水の上の部分</t>
-  </si>
-  <si>
     <t>噴水の水がある上の部分</t>
+  </si>
+  <si>
+    <t>階段</t>
+  </si>
+  <si>
+    <t>鉄</t>
   </si>
 </sst>
 </file>
@@ -409,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,8 +433,8 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <f>COUNTA(A5:A15)</f>
-        <v>11</v>
+        <f>COUNTA(A5:A16)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -602,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -634,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -666,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -698,19 +695,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -730,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -739,7 +736,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1">
         <v>50</v>
@@ -748,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -789,54 +786,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1">
-        <v>50</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -846,7 +803,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -856,7 +813,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -866,6 +823,16 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
